--- a/src/test/resources/login_report.xlsx
+++ b/src/test/resources/login_report.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="5">
   <si>
     <t>Nombre del Test</t>
   </si>
@@ -101,7 +101,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -123,6 +123,14 @@
         <v>4</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
